--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB490F5E-86BE-45BA-9361-E3E1CADDED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC81362-8E94-4EDC-9EDC-96E51152B08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="690" windowWidth="24495" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,9 +213,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,7 +498,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,14 +563,10 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="5">
-        <v>960</v>
-      </c>
-      <c r="G2" s="5">
-        <v>910</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -587,16 +580,16 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>960</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>910</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>880</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>550</v>
       </c>
       <c r="J3" s="3">
@@ -619,21 +612,19 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>550</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>450</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <f>960+(960-F4)</f>
         <v>1370</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>450</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -648,16 +639,14 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>960</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>910</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -672,16 +661,10 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="5">
-        <v>1050</v>
-      </c>
-      <c r="G6" s="5">
-        <v>900</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -696,16 +679,10 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="5">
-        <v>770</v>
-      </c>
-      <c r="G7" s="5">
-        <v>525</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -723,20 +700,10 @@
         <v>Connect_GPU</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="5">
-        <v>900</v>
-      </c>
-      <c r="G8" s="5">
-        <v>300</v>
-      </c>
-      <c r="H8" s="5">
-        <v>900</v>
-      </c>
-      <c r="I8" s="5">
-        <v>800</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -751,16 +718,14 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="5">
-        <v>1050</v>
-      </c>
-      <c r="G9" s="5">
-        <v>900</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="3">
+        <v>1052</v>
+      </c>
+      <c r="G9" s="3">
+        <v>902</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -775,20 +740,18 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="5">
-        <v>300</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="3">
+        <v>320</v>
+      </c>
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="5">
-        <v>800</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="3">
+        <v>756</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -806,20 +769,10 @@
         <v>Deboard</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="5">
-        <v>915</v>
-      </c>
-      <c r="G11" s="5">
-        <v>205</v>
-      </c>
-      <c r="H11" s="5">
-        <v>915</v>
-      </c>
-      <c r="I11" s="5">
-        <v>915</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -837,16 +790,14 @@
         <v>Deboard</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>1020</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>270</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -864,16 +815,14 @@
         <v>Deboard</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>960</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>560</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -888,16 +837,14 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>1380</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>180</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -912,23 +859,21 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>950</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>A4</f>
@@ -936,18 +881,16 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>1220</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>610</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -960,18 +903,16 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>960</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>560</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -984,18 +925,16 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>960</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>560</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1008,22 +947,20 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>900</v>
       </c>
-      <c r="G19" s="5">
-        <v>300</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="3">
+        <v>320</v>
+      </c>
+      <c r="H19" s="3">
         <v>900</v>
       </c>
-      <c r="I19" s="5">
-        <v>800</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1036,22 +973,12 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="5">
-        <v>900</v>
-      </c>
-      <c r="G20" s="5">
-        <v>300</v>
-      </c>
-      <c r="H20" s="5">
-        <v>900</v>
-      </c>
-      <c r="I20" s="5">
-        <v>800</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1070,18 +997,16 @@
         <f>A12</f>
         <v>Toilet_Service</v>
       </c>
-      <c r="F21" s="5">
-        <v>1050</v>
-      </c>
-      <c r="G21" s="5">
-        <v>900</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>1052</v>
+      </c>
+      <c r="G21" s="3">
+        <v>902</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1100,18 +1025,16 @@
         <f>A21</f>
         <v>Boarding</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>960</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>910</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1130,18 +1053,16 @@
         <f>A22</f>
         <v>Remove_GPU</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>960</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>910</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1160,18 +1081,16 @@
         <f>A7</f>
         <v>Refuel</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>960</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>970</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1184,18 +1103,16 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>960</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>910</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1208,10 +1125,10 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>880</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>550</v>
       </c>
       <c r="H26" s="3">
@@ -1220,10 +1137,8 @@
       <c r="I26" s="3">
         <v>550</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1236,18 +1151,16 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>960</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>970</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1260,18 +1173,12 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="5">
-        <v>1050</v>
-      </c>
-      <c r="G28" s="5">
-        <v>900</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -1290,16 +1197,14 @@
         <f>A26</f>
         <v>Remove_Chocks_Rear</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>960</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>910</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD766D-DB5C-4F90-9D79-42C53A1062F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51394922-B510-426D-88E3-1F8BE7E10245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Parking</t>
   </si>
@@ -161,13 +161,16 @@
     <t>Remove_Cones</t>
   </si>
   <si>
-    <t>Remove_Chocks_Walk</t>
-  </si>
-  <si>
     <t>Chocks_Rear</t>
   </si>
   <si>
     <t>Chocks_Front</t>
+  </si>
+  <si>
+    <t>Walkaround</t>
+  </si>
+  <si>
+    <t>Delay</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,9 +541,10 @@
     <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -574,8 +578,11 @@
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -589,10 +596,13 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -611,10 +621,13 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -637,8 +650,11 @@
       <c r="K4" s="3">
         <v>550</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -664,8 +680,11 @@
       <c r="K5" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -680,8 +699,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -700,8 +722,11 @@
         <f>A$4</f>
         <v>Chocks_Rear</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -720,8 +745,11 @@
         <f>A$4</f>
         <v>Chocks_Rear</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -740,8 +768,11 @@
         <f t="shared" ref="E9:E10" si="2">A$4</f>
         <v>Chocks_Rear</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -768,8 +799,11 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -792,8 +826,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -801,23 +838,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" ref="C12" si="6">A$5</f>
-        <v>Place_Cones</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" ref="D12" si="7">A$6</f>
-        <v>Connect_GPU</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" ref="E12" si="8">A$4</f>
+        <f>A$4</f>
         <v>Chocks_Rear</v>
       </c>
+      <c r="D12" s="1"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -838,8 +871,11 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -860,8 +896,11 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -878,8 +917,11 @@
       <c r="I15" s="3">
         <v>756</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
@@ -898,8 +940,11 @@
         <v>560</v>
       </c>
       <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -911,8 +956,11 @@
         <v>Deboard</v>
       </c>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -925,8 +973,11 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -945,8 +996,11 @@
         <v>180</v>
       </c>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -957,8 +1011,11 @@
         <f>A11</f>
         <v>Refuel_Prep</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
@@ -977,8 +1034,11 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1001,8 +1061,11 @@
         <v>560</v>
       </c>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -1021,8 +1084,11 @@
         <v>756</v>
       </c>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -1034,8 +1100,11 @@
         <v>Refuel</v>
       </c>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -1058,8 +1127,11 @@
         <v>902</v>
       </c>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1078,8 +1150,11 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -1114,8 +1189,11 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -1131,8 +1209,11 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
@@ -1143,8 +1224,11 @@
         <f>A21</f>
         <v>Load_Rear</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -1155,8 +1239,11 @@
         <f>A23</f>
         <v>Load_Front</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>40</v>
       </c>
@@ -1182,10 +1269,13 @@
       <c r="K31" s="3">
         <v>450</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -1200,8 +1290,11 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -1222,7 +1315,7 @@
       </c>
       <c r="F33" s="1" t="str">
         <f>A32</f>
-        <v>Remove_Chocks_Walk</v>
+        <v>Walkaround</v>
       </c>
       <c r="G33" s="1" t="str">
         <f>A26</f>
@@ -1235,8 +1328,11 @@
         <v>970</v>
       </c>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -1249,6 +1345,9 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51394922-B510-426D-88E3-1F8BE7E10245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE422E62-6399-4BBF-8A1E-B6F3784C63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>Cabin_Prep</t>
   </si>
   <si>
-    <t>Refuel_Finalasing</t>
-  </si>
-  <si>
     <t>Remove_Cones</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Delay</t>
+  </si>
+  <si>
+    <t>Refuel_Finalising</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5">
         <v>14</v>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E27" s="1" t="str">
         <f>A24</f>
-        <v>Refuel_Finalasing</v>
+        <v>Refuel_Finalising</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>A25</f>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE422E62-6399-4BBF-8A1E-B6F3784C63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E3BD0-4DF5-4FB8-B590-B7FCAFE47516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="H23" sqref="H23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E3BD0-4DF5-4FB8-B590-B7FCAFE47516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02329A81-C297-4002-97BF-402126F40612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Flight_Closure</t>
   </si>
   <si>
-    <t>Attatch_Tug</t>
-  </si>
-  <si>
     <t>PDCS</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Refuel_Finalising</t>
+  </si>
+  <si>
+    <t>Attach_Tug</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:I23"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,25 +561,25 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5">
         <v>14</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5">
         <v>13</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <v>16</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5">
         <v>10</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5">
         <v>10</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5">
         <v>30</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5">
         <v>25</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5">
         <v>14</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="5">
         <v>2</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="5">
         <v>2</v>
@@ -1245,14 +1245,14 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>A28</f>
-        <v>Attatch_Tug</v>
+        <v>Attach_Tug</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1275,14 +1275,14 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>A28</f>
-        <v>Attatch_Tug</v>
+        <v>Attach_Tug</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="5">
         <v>2</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimLe\PycharmProjects\JIP_ApronSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02329A81-C297-4002-97BF-402126F40612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24FBDFC-8B5A-410B-BC67-0DCBBCEC1A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Parking</t>
   </si>
@@ -528,7 +528,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,8 +1254,12 @@
         <f>A28</f>
         <v>Attach_Tug</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H31" s="3">
         <v>550</v>
       </c>
